--- a/results/Auto/genero-m1_es_el_más_adjetivopositivo-m2_que_he_conocido.xlsx
+++ b/results/Auto/genero-m1_es_el_más_adjetivopositivo-m2_que_he_conocido.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00227350858040154</v>
+        <v>7.723111394852822e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0.0005122306756675243</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002635573968291283</v>
+        <v>5.399319746857145e-08</v>
       </c>
       <c r="E3" t="n">
         <v>0.0001410886470694095</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002007865346968174</v>
+        <v>1.166435552590883e-07</v>
       </c>
       <c r="E4" t="n">
         <v>0.0005701137124560773</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004145558457821608</v>
+        <v>3.455781438788108e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.0003485827182885259</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001179971848614514</v>
+        <v>3.279994231775163e-08</v>
       </c>
       <c r="E6" t="n">
         <v>0.000139103940455243</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00675912294536829</v>
+        <v>2.128615506080678e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.005321124102920294</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001724648900562897</v>
+        <v>1.899703505614525e-09</v>
       </c>
       <c r="E8" t="n">
         <v>9.908704669214785e-06</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004062884487211704</v>
+        <v>3.204638332476861e-08</v>
       </c>
       <c r="E9" t="n">
         <v>9.84829748631455e-05</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003468301147222519</v>
+        <v>8.014414731860597e-08</v>
       </c>
       <c r="E10" t="n">
         <v>0.0001766387722454965</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001643738243728876</v>
+        <v>7.627920517450093e-09</v>
       </c>
       <c r="E11" t="n">
         <v>0.0006761713302694261</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001976268365979195</v>
+        <v>7.454436712350798e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.0007634201319888234</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003332626773044467</v>
+        <v>1.344416347137667e-07</v>
       </c>
       <c r="E13" t="n">
         <v>0.0002924917498603463</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009061982855200768</v>
+        <v>7.231128762441585e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.002332127187401056</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00642692856490612</v>
+        <v>1.279053751801484e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.0003725200367625803</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004159951582551003</v>
+        <v>1.44875045293702e-07</v>
       </c>
       <c r="E16" t="n">
         <v>0.0002733539731707424</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004908963106572628</v>
+        <v>9.579573401197194e-08</v>
       </c>
       <c r="E17" t="n">
         <v>5.854723713127896e-05</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001323107513599098</v>
+        <v>2.057753505368964e-07</v>
       </c>
       <c r="E18" t="n">
         <v>0.00319064361974597</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0007682215655222535</v>
+        <v>1.121754777955175e-08</v>
       </c>
       <c r="E19" t="n">
         <v>0.0002916580124292523</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002695913892239332</v>
+        <v>5.42120552893266e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.0001932717859745026</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001986401621252298</v>
+        <v>1.884606319890736e-07</v>
       </c>
       <c r="E21" t="n">
         <v>0.00103465688880533</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00320488098077476</v>
+        <v>7.351588493520467e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.00228356453590095</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001986583927646279</v>
+        <v>7.428277370991054e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.0002116598043357953</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001255056937225163</v>
+        <v>4.465782410534302e-08</v>
       </c>
       <c r="E24" t="n">
         <v>1.240073106600903e-05</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002342843916267157</v>
+        <v>4.338883030641227e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.004770126659423113</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001578774303197861</v>
+        <v>4.848862289463796e-08</v>
       </c>
       <c r="E26" t="n">
         <v>5.925758159719408e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003113425802439451</v>
+        <v>5.810971970277024e-08</v>
       </c>
       <c r="E27" t="n">
         <v>4.723244637716562e-05</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001278367359191179</v>
+        <v>4.841168532720985e-08</v>
       </c>
       <c r="E28" t="n">
         <v>0.0004499948699958622</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00744361849501729</v>
+        <v>1.928722959121387e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.000582458742428571</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003805335611104965</v>
+        <v>3.710863794026409e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.001930145546793938</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000700172851793468</v>
+        <v>5.893307619686539e-09</v>
       </c>
       <c r="E31" t="n">
         <v>2.098215918522328e-05</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002095264615491033</v>
+        <v>1.942924754416708e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.0003750996547751129</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001750120078213513</v>
+        <v>6.486990145049276e-08</v>
       </c>
       <c r="E33" t="n">
         <v>0.0002419756056042388</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001955236773937941</v>
+        <v>5.646703016282117e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.000225376061280258</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002941223559901118</v>
+        <v>8.489517711041117e-08</v>
       </c>
       <c r="E35" t="n">
         <v>0.0001083843744709156</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001662446884438396</v>
+        <v>5.973750916155041e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.0002857352665159851</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001694757607765496</v>
+        <v>1.292375912953503e-07</v>
       </c>
       <c r="E37" t="n">
         <v>0.000327480403939262</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.007336173672229052</v>
+        <v>9.089883690194256e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.0004158930969424546</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002440943382680416</v>
+        <v>2.767431084294003e-08</v>
       </c>
       <c r="E39" t="n">
         <v>0.0009554279968142509</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00149319926276803</v>
+        <v>1.567373075772593e-08</v>
       </c>
       <c r="E40" t="n">
         <v>0.001368069904856384</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003267913125455379</v>
+        <v>3.587954822137362e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.000359340338036418</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004898107144981623</v>
+        <v>8.33425986002112e-08</v>
       </c>
       <c r="E42" t="n">
         <v>0.0010163604747504</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001643503434024751</v>
+        <v>4.598390290766474e-08</v>
       </c>
       <c r="E43" t="n">
         <v>8.428131695836782e-05</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002393374219536781</v>
+        <v>6.550715880848657e-08</v>
       </c>
       <c r="E44" t="n">
         <v>0.0001137021172326058</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0008681918843649328</v>
+        <v>5.397063063128371e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.002994784153997898</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00298328697681427</v>
+        <v>2.100917839698013e-07</v>
       </c>
       <c r="E46" t="n">
         <v>0.0002168469509342685</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004151540342718363</v>
+        <v>2.874437354805082e-09</v>
       </c>
       <c r="E47" t="n">
         <v>0.002791936974972486</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002511494094505906</v>
+        <v>1.119517278880267e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.0003437609120737761</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002084002131596208</v>
+        <v>5.680774606275918e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.000932584167458117</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004410356748849154</v>
+        <v>2.80885359416061e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.0001392612175550312</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001349551603198051</v>
+        <v>9.938023026734299e-08</v>
       </c>
       <c r="E51" t="n">
         <v>0.001692758058197796</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002392995869740844</v>
+        <v>4.150241394995646e-08</v>
       </c>
       <c r="E52" t="n">
         <v>8.059571700869128e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002248764038085938</v>
+        <v>1.672463980639805e-07</v>
       </c>
       <c r="E53" t="n">
         <v>0.001556080067530274</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.003963293507695198</v>
+        <v>9.604289807896293e-09</v>
       </c>
       <c r="E54" t="n">
         <v>0.00118293846026063</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003063960699364543</v>
+        <v>2.36950068455144e-08</v>
       </c>
       <c r="E55" t="n">
         <v>0.002237118547782302</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004582657478749752</v>
+        <v>1.315462441198179e-07</v>
       </c>
       <c r="E56" t="n">
         <v>0.0003284489503130317</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.002165017882362008</v>
+        <v>6.758725135114219e-08</v>
       </c>
       <c r="E57" t="n">
         <v>0.0001026550962706096</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00426189973950386</v>
+        <v>4.79854094237453e-08</v>
       </c>
       <c r="E58" t="n">
         <v>8.537921530660242e-05</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003058062866330147</v>
+        <v>2.842511825917882e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.002249079756438732</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007693710271269083</v>
+        <v>5.455347107385933e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.0006213437300175428</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001829195767641068</v>
+        <v>1.58754254186988e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.001871202723123133</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001263503218069673</v>
+        <v>7.992329642547702e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.001967023592442274</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0008127450128085911</v>
+        <v>3.592474540070612e-09</v>
       </c>
       <c r="E63" t="n">
         <v>1.774057454895228e-05</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004229383543133736</v>
+        <v>5.95134324044011e-08</v>
       </c>
       <c r="E64" t="n">
         <v>0.0001201478225993924</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005631209351122379</v>
+        <v>5.660988122713206e-08</v>
       </c>
       <c r="E65" t="n">
         <v>0.000116124632768333</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001933307386934757</v>
+        <v>8.335458545616348e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.0001562804100103676</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.007273892872035503</v>
+        <v>3.186049823966641e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.007279096636921167</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002342853229492903</v>
+        <v>2.58100349981305e-08</v>
       </c>
       <c r="E68" t="n">
         <v>6.338971434161067e-05</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00305078667588532</v>
+        <v>6.017218368015165e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0001935933687491342</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002090375171974301</v>
+        <v>6.455522338910669e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001983315742108971</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0007884563528932631</v>
+        <v>1.057179677133036e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.002054250566288829</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00251277768984437</v>
+        <v>6.766409654801464e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0001833081914810464</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001713166013360023</v>
+        <v>9.342779883070307e-09</v>
       </c>
       <c r="E73" t="n">
         <v>5.822969978908077e-05</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001540057943202555</v>
+        <v>2.209893601445856e-08</v>
       </c>
       <c r="E74" t="n">
         <v>0.001460797735489905</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.005601422861218452</v>
+        <v>9.342201678919082e-08</v>
       </c>
       <c r="E75" t="n">
         <v>0.000402873323764652</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003621084382757545</v>
+        <v>5.535805769341096e-08</v>
       </c>
       <c r="E76" t="n">
         <v>7.472875586245209e-05</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.003676342777907848</v>
+        <v>6.994982726382659e-08</v>
       </c>
       <c r="E77" t="n">
         <v>0.0001566540449857712</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002872642129659653</v>
+        <v>2.065410242835242e-08</v>
       </c>
       <c r="E78" t="n">
         <v>9.416232933290303e-05</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00116809643805027</v>
+        <v>1.569133623036123e-08</v>
       </c>
       <c r="E79" t="n">
         <v>9.663622040534392e-05</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002075695432722569</v>
+        <v>1.077451230457882e-07</v>
       </c>
       <c r="E80" t="n">
         <v>0.001999889500439167</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002678477670997381</v>
+        <v>1.371875271161116e-07</v>
       </c>
       <c r="E81" t="n">
         <v>0.0001655717933317646</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003430776530876756</v>
+        <v>2.030371604178072e-07</v>
       </c>
       <c r="E82" t="n">
         <v>0.001585337216965854</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.005645678378641605</v>
+        <v>1.100379805052398e-07</v>
       </c>
       <c r="E83" t="n">
         <v>0.0004531119484454393</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.003816636512055993</v>
+        <v>1.640289237769821e-09</v>
       </c>
       <c r="E84" t="n">
         <v>1.088794579118257e-05</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00363330845721066</v>
+        <v>5.98307536847642e-08</v>
       </c>
       <c r="E85" t="n">
         <v>0.0001197279270854779</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003044625511392951</v>
+        <v>9.408810086597441e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.002294348319992423</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00123713759239763</v>
+        <v>8.705846710199694e-09</v>
       </c>
       <c r="E87" t="n">
         <v>0.0003910465748049319</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002695046598091722</v>
+        <v>1.005449679070125e-08</v>
       </c>
       <c r="E88" t="n">
         <v>0.001207839115522802</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.003320195712149143</v>
+        <v>9.311381177212752e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.02460799552500248</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.003963293507695198</v>
+        <v>9.604289807896293e-09</v>
       </c>
       <c r="E90" t="n">
         <v>0.00118293846026063</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01061239838600159</v>
+        <v>1.382251468839968e-08</v>
       </c>
       <c r="E91" t="n">
         <v>0.0005325361853465438</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.004487229976803064</v>
+        <v>6.896293314184732e-08</v>
       </c>
       <c r="E92" t="n">
         <v>0.0006933330441825092</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002352335257455707</v>
+        <v>2.764262951870933e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.0001592964836163446</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001870282343588769</v>
+        <v>2.472751781112947e-08</v>
       </c>
       <c r="E94" t="n">
         <v>0.001807574881240726</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001175876124761999</v>
+        <v>1.083961276293621e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.003171979915350676</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002496917732059956</v>
+        <v>4.27043254092041e-08</v>
       </c>
       <c r="E96" t="n">
         <v>3.369999831193127e-05</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004705913364887238</v>
+        <v>3.762877565094414e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.005025217309594154</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0006806228775531054</v>
+        <v>9.284082835847585e-09</v>
       </c>
       <c r="E98" t="n">
         <v>0.001678523840382695</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001246504951268435</v>
+        <v>7.267320967230262e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.001035063061863184</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.005953843239694834</v>
+        <v>1.11113948264574e-07</v>
       </c>
       <c r="E100" t="n">
         <v>0.0008809508290141821</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.006199623458087444</v>
+        <v>1.207733824060142e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.004560088273137808</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
